--- a/Резы/Респа для МИТЕ-91 на 2020 год.xlsx
+++ b/Резы/Респа для МИТЕ-91 на 2020 год.xlsx
@@ -1219,8 +1219,11 @@
         </is>
       </c>
       <c r="H3" s="7" t="n"/>
-      <c r="I3" s="3" t="n">
-        <v>101</v>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>101
+310</t>
+        </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
@@ -1546,7 +1549,7 @@
       </c>
       <c r="E3" s="4" t="n"/>
       <c r="H3" s="3" t="n">
-        <v>101</v>
+        <v>310</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
@@ -1572,9 +1575,7 @@
       <c r="E4" s="16" t="n"/>
       <c r="F4" s="16" t="n"/>
       <c r="G4" s="7" t="n"/>
-      <c r="H4" s="3" t="n">
-        <v>310</v>
-      </c>
+      <c r="H4" s="23" t="n"/>
       <c r="I4" s="23" t="n"/>
     </row>
     <row r="5" ht="68" customHeight="1">
@@ -1829,7 +1830,7 @@
       <c r="I13" s="8" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="D4:G4"/>
@@ -1844,6 +1845,7 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="I11:I13"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A7:A10"/>

--- a/Резы/Респа для МИТЕ-91 на 2020 год.xlsx
+++ b/Резы/Респа для МИТЕ-91 на 2020 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -114,10 +114,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -152,28 +152,28 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -191,31 +191,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -651,7 +651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -846,7 +846,7 @@
     <row r="6" ht="34" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>СР</t>
+          <t>ВТ</t>
         </is>
       </c>
       <c r="B6" s="14" t="n">
@@ -862,92 +862,85 @@
       <c r="I6" s="14" t="n"/>
     </row>
     <row r="7" ht="34" customHeight="1">
-      <c r="A7" s="6" t="n"/>
-      <c r="B7" s="14" t="n">
+      <c r="A7" s="8" t="n"/>
+      <c r="B7" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="14" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n"/>
-      <c r="H7" s="14" t="n"/>
-      <c r="I7" s="14" t="n"/>
+      <c r="D7" s="10" t="inlineStr">
+        <is>
+          <t>Временно день самоподготовки: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="n"/>
+      <c r="F7" s="11" t="n"/>
+      <c r="G7" s="12" t="n"/>
+      <c r="H7" s="9" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I7" s="9" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="34" customHeight="1">
-      <c r="A8" s="6" t="n"/>
-      <c r="B8" s="3" t="n">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>СР</t>
+        </is>
+      </c>
+      <c r="B8" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="I8" s="14" t="n"/>
+    </row>
+    <row r="9" ht="34" customHeight="1">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="14" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="I9" s="14" t="n"/>
+    </row>
+    <row r="10" ht="34" customHeight="1">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n"/>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="D10" s="4" t="n"/>
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Волоконно-оптические системы передачи: лекция (общ)</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n"/>
-      <c r="H8" s="3" t="n">
+      <c r="G10" s="4" t="n"/>
+      <c r="H10" s="3" t="n">
         <v>110</v>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>Кусайкин Д.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="34" customHeight="1">
-      <c r="A9" s="8" t="n"/>
-      <c r="B9" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" s="9" t="inlineStr">
-        <is>
-          <t>14:20 - 15:55</t>
-        </is>
-      </c>
-      <c r="D9" s="13" t="n"/>
-      <c r="E9" s="15" t="n"/>
-      <c r="F9" s="10" t="inlineStr">
-        <is>
-          <t>Волоконно-оптические системы передачи: ЛБ (общ)</t>
-        </is>
-      </c>
-      <c r="G9" s="13" t="n"/>
-      <c r="H9" s="9" t="n">
-        <v>312</v>
-      </c>
-      <c r="I9" s="8" t="n"/>
-    </row>
-    <row r="10" ht="34" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>ПТ</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>08:30 - 10:05</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="n"/>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>Волоконно-оптические системы передачи: ЛБ (общ)</t>
-        </is>
-      </c>
-      <c r="F10" s="16" t="n"/>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="3" t="n">
-        <v>312</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
@@ -958,124 +951,231 @@
     <row r="11" ht="34" customHeight="1">
       <c r="A11" s="8" t="n"/>
       <c r="B11" s="9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>10:15 - 11:50</t>
+          <t>14:20 - 15:55</t>
         </is>
       </c>
       <c r="D11" s="13" t="n"/>
-      <c r="E11" s="10" t="inlineStr">
-        <is>
-          <t>Волоконно-оптические системы передачи: лекция (общ)</t>
-        </is>
-      </c>
-      <c r="F11" s="11" t="n"/>
-      <c r="G11" s="12" t="n"/>
+      <c r="E11" s="15" t="n"/>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>Волоконно-оптические системы передачи: ЛБ (общ)</t>
+        </is>
+      </c>
+      <c r="G11" s="13" t="n"/>
       <c r="H11" s="9" t="n">
-        <v>101</v>
+        <v>312</v>
       </c>
       <c r="I11" s="8" t="n"/>
     </row>
     <row r="12" ht="34" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
+          <t>ЧТ</t>
+        </is>
+      </c>
+      <c r="B12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="n"/>
+      <c r="H12" s="14" t="n"/>
+      <c r="I12" s="14" t="n"/>
+    </row>
+    <row r="13" ht="34" customHeight="1">
+      <c r="A13" s="8" t="n"/>
+      <c r="B13" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D13" s="10" t="inlineStr">
+        <is>
+          <t>Временно день самоподготовки: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E13" s="11" t="n"/>
+      <c r="F13" s="11" t="n"/>
+      <c r="G13" s="12" t="n"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="34" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>ПТ</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>Волоконно-оптические системы передачи: ЛБ (общ)</t>
+        </is>
+      </c>
+      <c r="F14" s="16" t="n"/>
+      <c r="G14" s="7" t="n"/>
+      <c r="H14" s="3" t="n">
+        <v>312</v>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>Кусайкин Д.В.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="34" customHeight="1">
+      <c r="A15" s="8" t="n"/>
+      <c r="B15" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D15" s="13" t="n"/>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Волоконно-оптические системы передачи: лекция (общ)</t>
+        </is>
+      </c>
+      <c r="F15" s="11" t="n"/>
+      <c r="G15" s="12" t="n"/>
+      <c r="H15" s="9" t="n">
+        <v>101</v>
+      </c>
+      <c r="I15" s="8" t="n"/>
+    </row>
+    <row r="16" ht="34" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
           <t>СБ</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B16" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D12" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Широкополосные беспроводные сети: лекция (общ)</t>
         </is>
       </c>
-      <c r="E12" s="17" t="n"/>
-      <c r="F12" s="4" t="n"/>
-      <c r="G12" s="5" t="inlineStr">
+      <c r="E16" s="17" t="n"/>
+      <c r="F16" s="4" t="n"/>
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>Широкополосные беспроводные сети: лекция (общ)</t>
         </is>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H16" s="3" t="n">
         <v>215</v>
       </c>
-      <c r="I12" s="3" t="inlineStr">
+      <c r="I16" s="3" t="inlineStr">
         <is>
           <t>Кутенин В.С.</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="34" customHeight="1">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="3" t="n">
+    <row r="17" ht="34" customHeight="1">
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D13" s="18" t="n"/>
-      <c r="E13" s="19" t="n"/>
-      <c r="F13" s="4" t="n"/>
-      <c r="G13" s="20" t="n"/>
-      <c r="H13" s="6" t="n"/>
-      <c r="I13" s="6" t="n"/>
-    </row>
-    <row r="14" ht="34" customHeight="1">
-      <c r="A14" s="8" t="n"/>
-      <c r="B14" s="9" t="n">
+      <c r="D17" s="18" t="n"/>
+      <c r="E17" s="19" t="n"/>
+      <c r="F17" s="4" t="n"/>
+      <c r="G17" s="20" t="n"/>
+      <c r="H17" s="6" t="n"/>
+      <c r="I17" s="6" t="n"/>
+    </row>
+    <row r="18" ht="34" customHeight="1">
+      <c r="A18" s="8" t="n"/>
+      <c r="B18" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="9" t="inlineStr">
+      <c r="C18" s="9" t="inlineStr">
         <is>
           <t>12:00 - 13:40</t>
         </is>
       </c>
-      <c r="D14" s="10" t="inlineStr">
+      <c r="D18" s="10" t="inlineStr">
         <is>
           <t>Широкополосные беспроводные сети: ПР (общ)</t>
         </is>
       </c>
-      <c r="E14" s="12" t="n"/>
-      <c r="F14" s="13" t="n"/>
-      <c r="G14" s="10" t="inlineStr">
+      <c r="E18" s="12" t="n"/>
+      <c r="F18" s="13" t="n"/>
+      <c r="G18" s="10" t="inlineStr">
         <is>
           <t>Широкополосные беспроводные сети: ПР (общ)</t>
         </is>
       </c>
-      <c r="H14" s="8" t="n"/>
-      <c r="I14" s="8" t="n"/>
+      <c r="H18" s="8" t="n"/>
+      <c r="I18" s="8" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="26">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1088,7 +1188,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1292,34 +1392,20 @@
     <row r="6" ht="34" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>ПТ</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
+          <t>ВТ</t>
+        </is>
+      </c>
+      <c r="B6" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="14" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>Волоконно-оптические системы передачи: ЛБ (общ)</t>
-        </is>
-      </c>
-      <c r="E6" s="16" t="n"/>
-      <c r="F6" s="16" t="n"/>
-      <c r="G6" s="7" t="n"/>
-      <c r="H6" s="4" t="n"/>
-      <c r="I6" s="3" t="n">
-        <v>312</v>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>Кусайкин Д.В.</t>
-        </is>
-      </c>
+      <c r="D6" s="4" t="n"/>
+      <c r="I6" s="14" t="n"/>
+      <c r="J6" s="14" t="n"/>
     </row>
     <row r="7" ht="34" customHeight="1">
       <c r="A7" s="8" t="n"/>
@@ -1333,105 +1419,221 @@
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>Волоконно-оптические системы передачи: лекция (общ)</t>
+          <t>Временно день самоподготовки: рейд (общ)</t>
         </is>
       </c>
       <c r="E7" s="11" t="n"/>
       <c r="F7" s="11" t="n"/>
-      <c r="G7" s="12" t="n"/>
-      <c r="H7" s="13" t="n"/>
-      <c r="I7" s="9" t="n">
-        <v>101</v>
-      </c>
-      <c r="J7" s="8" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="I7" s="9" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="J7" s="9" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="34" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
+          <t>ЧТ</t>
+        </is>
+      </c>
+      <c r="B8" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n"/>
+      <c r="I8" s="14" t="n"/>
+      <c r="J8" s="14" t="n"/>
+    </row>
+    <row r="9" ht="34" customHeight="1">
+      <c r="A9" s="8" t="n"/>
+      <c r="B9" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>Временно день самоподготовки: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E9" s="11" t="n"/>
+      <c r="F9" s="11" t="n"/>
+      <c r="G9" s="11" t="n"/>
+      <c r="H9" s="12" t="n"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="J9" s="9" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="34" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>ПТ</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>Волоконно-оптические системы передачи: ЛБ (общ)</t>
+        </is>
+      </c>
+      <c r="E10" s="16" t="n"/>
+      <c r="F10" s="16" t="n"/>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="4" t="n"/>
+      <c r="I10" s="3" t="n">
+        <v>312</v>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>Кусайкин Д.В.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="34" customHeight="1">
+      <c r="A11" s="8" t="n"/>
+      <c r="B11" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>Волоконно-оптические системы передачи: лекция (общ)</t>
+        </is>
+      </c>
+      <c r="E11" s="11" t="n"/>
+      <c r="F11" s="11" t="n"/>
+      <c r="G11" s="12" t="n"/>
+      <c r="H11" s="13" t="n"/>
+      <c r="I11" s="9" t="n">
+        <v>101</v>
+      </c>
+      <c r="J11" s="8" t="n"/>
+    </row>
+    <row r="12" ht="34" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
           <t>СБ</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n"/>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Широкополосные беспроводные сети: лекция (общ)</t>
         </is>
       </c>
-      <c r="F8" s="21" t="n"/>
-      <c r="G8" s="21" t="n"/>
-      <c r="H8" s="17" t="n"/>
-      <c r="I8" s="3" t="n">
+      <c r="F12" s="21" t="n"/>
+      <c r="G12" s="21" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="I12" s="3" t="n">
         <v>215</v>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="J12" s="3" t="inlineStr">
         <is>
           <t>Кутенин В.С.</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="34" customHeight="1">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="3" t="n">
+    <row r="13" ht="34" customHeight="1">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n"/>
-      <c r="E9" s="18" t="n"/>
-      <c r="F9" s="22" t="n"/>
-      <c r="G9" s="22" t="n"/>
-      <c r="H9" s="19" t="n"/>
-      <c r="I9" s="6" t="n"/>
-      <c r="J9" s="6" t="n"/>
-    </row>
-    <row r="10" ht="34" customHeight="1">
-      <c r="A10" s="8" t="n"/>
-      <c r="B10" s="9" t="n">
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="18" t="n"/>
+      <c r="F13" s="22" t="n"/>
+      <c r="G13" s="22" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="6" t="n"/>
+      <c r="J13" s="6" t="n"/>
+    </row>
+    <row r="14" ht="34" customHeight="1">
+      <c r="A14" s="8" t="n"/>
+      <c r="B14" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
         <is>
           <t>12:00 - 13:40</t>
         </is>
       </c>
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="D14" s="13" t="n"/>
+      <c r="E14" s="10" t="inlineStr">
         <is>
           <t>Широкополосные беспроводные сети: ПР (общ)</t>
         </is>
       </c>
-      <c r="F10" s="11" t="n"/>
-      <c r="G10" s="11" t="n"/>
-      <c r="H10" s="12" t="n"/>
-      <c r="I10" s="8" t="n"/>
-      <c r="J10" s="8" t="n"/>
+      <c r="F14" s="11" t="n"/>
+      <c r="G14" s="11" t="n"/>
+      <c r="H14" s="12" t="n"/>
+      <c r="I14" s="8" t="n"/>
+      <c r="J14" s="8" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="21">
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E8:H9"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:A5"/>
   </mergeCells>
@@ -1445,7 +1647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1653,7 +1855,7 @@
     <row r="7" ht="34" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>СР</t>
+          <t>ВТ</t>
         </is>
       </c>
       <c r="B7" s="14" t="n">
@@ -1669,186 +1871,286 @@
       <c r="I7" s="14" t="n"/>
     </row>
     <row r="8" ht="34" customHeight="1">
-      <c r="A8" s="6" t="n"/>
-      <c r="B8" s="3" t="n">
+      <c r="A8" s="8" t="n"/>
+      <c r="B8" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="D8" s="10" t="inlineStr">
+        <is>
+          <t>Временно день самоподготовки: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E8" s="11" t="n"/>
+      <c r="F8" s="11" t="n"/>
+      <c r="G8" s="12" t="n"/>
+      <c r="H8" s="9" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="34" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>СР</t>
+        </is>
+      </c>
+      <c r="B9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="I9" s="14" t="n"/>
+    </row>
+    <row r="10" ht="34" customHeight="1">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Иностранный язык: ПР (общ)</t>
         </is>
       </c>
-      <c r="E8" s="16" t="n"/>
-      <c r="F8" s="16" t="n"/>
-      <c r="G8" s="7" t="n"/>
-      <c r="H8" s="3" t="n">
+      <c r="E10" s="16" t="n"/>
+      <c r="F10" s="16" t="n"/>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="3" t="n">
         <v>205</v>
       </c>
-      <c r="I8" s="3" t="inlineStr">
+      <c r="I10" s="3" t="inlineStr">
         <is>
           <t>Новокшенова Р.Г.</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="34" customHeight="1">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="3" t="n">
+    <row r="11" ht="34" customHeight="1">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Волоконно-оптические системы передачи: лекция (общ)</t>
         </is>
       </c>
-      <c r="E9" s="16" t="n"/>
-      <c r="F9" s="7" t="n"/>
-      <c r="G9" s="5" t="inlineStr">
+      <c r="E11" s="16" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>Волоконно-оптические системы передачи: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="H9" s="3" t="inlineStr">
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>110, 312</t>
         </is>
       </c>
-      <c r="I9" s="3" t="inlineStr">
+      <c r="I11" s="3" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="34" customHeight="1">
-      <c r="A10" s="8" t="n"/>
-      <c r="B10" s="9" t="n">
+    <row r="12" ht="34" customHeight="1">
+      <c r="A12" s="8" t="n"/>
+      <c r="B12" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D10" s="10" t="inlineStr">
+      <c r="D12" s="10" t="inlineStr">
         <is>
           <t>Современные технологии в программировании: лекция (общ)</t>
         </is>
       </c>
-      <c r="E10" s="12" t="n"/>
-      <c r="F10" s="10" t="inlineStr">
+      <c r="E12" s="12" t="n"/>
+      <c r="F12" s="10" t="inlineStr">
         <is>
           <t>Современные технологии в программировании: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="G10" s="12" t="n"/>
-      <c r="H10" s="9" t="n">
+      <c r="G12" s="12" t="n"/>
+      <c r="H12" s="9" t="n">
         <v>310</v>
       </c>
-      <c r="I10" s="9" t="inlineStr">
+      <c r="I12" s="9" t="inlineStr">
         <is>
           <t>Обвинцев О.А.</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
+    <row r="13" ht="34" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>ЧТ</t>
+        </is>
+      </c>
+      <c r="B13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="n"/>
+      <c r="H13" s="14" t="n"/>
+      <c r="I13" s="14" t="n"/>
+    </row>
+    <row r="14" ht="34" customHeight="1">
+      <c r="A14" s="8" t="n"/>
+      <c r="B14" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
+          <t>Временно день самоподготовки: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E14" s="11" t="n"/>
+      <c r="F14" s="11" t="n"/>
+      <c r="G14" s="12" t="n"/>
+      <c r="H14" s="9" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="34" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>СБ</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B15" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Широкополосные беспроводные сети: лекция (общ)</t>
         </is>
       </c>
-      <c r="E11" s="4" t="n"/>
-      <c r="H11" s="3" t="n">
+      <c r="E15" s="4" t="n"/>
+      <c r="H15" s="3" t="n">
         <v>215</v>
       </c>
-      <c r="I11" s="3" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>Кутенин В.С.</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="34" customHeight="1">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="3" t="n">
+    <row r="16" ht="34" customHeight="1">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D12" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Широкополосные беспроводные сети: лекция (общ)</t>
         </is>
       </c>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="4" t="n"/>
-      <c r="H12" s="6" t="n"/>
-      <c r="I12" s="6" t="n"/>
-    </row>
-    <row r="13" ht="34" customHeight="1">
-      <c r="A13" s="8" t="n"/>
-      <c r="B13" s="9" t="n">
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="4" t="n"/>
+      <c r="H16" s="6" t="n"/>
+      <c r="I16" s="6" t="n"/>
+    </row>
+    <row r="17" ht="34" customHeight="1">
+      <c r="A17" s="8" t="n"/>
+      <c r="B17" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="9" t="inlineStr">
+      <c r="C17" s="9" t="inlineStr">
         <is>
           <t>12:00 - 13:40</t>
         </is>
       </c>
-      <c r="D13" s="10" t="inlineStr">
+      <c r="D17" s="10" t="inlineStr">
         <is>
           <t>Широкополосные беспроводные сети: ПР (общ)</t>
         </is>
       </c>
-      <c r="E13" s="12" t="n"/>
-      <c r="F13" s="13" t="n"/>
-      <c r="G13" s="15" t="n"/>
-      <c r="H13" s="8" t="n"/>
-      <c r="I13" s="8" t="n"/>
+      <c r="E17" s="12" t="n"/>
+      <c r="F17" s="13" t="n"/>
+      <c r="G17" s="15" t="n"/>
+      <c r="H17" s="8" t="n"/>
+      <c r="I17" s="8" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="26">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H15:H17"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="A2:A6"/>
   </mergeCells>
@@ -1862,7 +2164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1876,7 +2178,7 @@
     <col width="9" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="20.5" customWidth="1" min="3" max="3"/>
-    <col width="23.5" customWidth="1" min="4" max="4"/>
+    <col width="59" customWidth="1" min="4" max="4"/>
     <col width="74.95" customWidth="1" min="5" max="5"/>
     <col width="23.5" customWidth="1" min="6" max="6"/>
     <col width="80.75" customWidth="1" min="7" max="7"/>
@@ -2050,7 +2352,7 @@
     <row r="7" ht="34" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>СР</t>
+          <t>ВТ</t>
         </is>
       </c>
       <c r="B7" s="14" t="n">
@@ -2066,141 +2368,143 @@
       <c r="J7" s="14" t="n"/>
     </row>
     <row r="8" ht="34" customHeight="1">
-      <c r="A8" s="6" t="n"/>
-      <c r="B8" s="3" t="n">
+      <c r="A8" s="8" t="n"/>
+      <c r="B8" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n"/>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="D8" s="10" t="inlineStr">
+        <is>
+          <t>Временно день самоподготовки: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E8" s="11" t="n"/>
+      <c r="F8" s="11" t="n"/>
+      <c r="G8" s="11" t="n"/>
+      <c r="H8" s="12" t="n"/>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="J8" s="9" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="34" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>СР</t>
+        </is>
+      </c>
+      <c r="B9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="n"/>
+      <c r="I9" s="14" t="n"/>
+      <c r="J9" s="14" t="n"/>
+    </row>
+    <row r="10" ht="34" customHeight="1">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Иностранный язык: ПР (общ)</t>
         </is>
       </c>
-      <c r="F8" s="16" t="n"/>
-      <c r="G8" s="7" t="n"/>
-      <c r="H8" s="4" t="n"/>
-      <c r="I8" s="3" t="n">
+      <c r="F10" s="16" t="n"/>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="4" t="n"/>
+      <c r="I10" s="3" t="n">
         <v>205</v>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="J10" s="3" t="inlineStr">
         <is>
           <t>Новокшенова Р.Г.</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="34" customHeight="1">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="3" t="n">
+    <row r="11" ht="34" customHeight="1">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="n"/>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>Современные технологии в программировании: ЛБ (общ)</t>
-        </is>
-      </c>
-      <c r="F9" s="16" t="n"/>
-      <c r="G9" s="7" t="n"/>
-      <c r="H9" s="4" t="n"/>
-      <c r="I9" s="3" t="n">
-        <v>310</v>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>Обвинцев О.А.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="34" customHeight="1">
-      <c r="A10" s="8" t="n"/>
-      <c r="B10" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>14:20 - 15:55</t>
-        </is>
-      </c>
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Современные технологии в программировании: ЛБ (общ)</t>
-        </is>
-      </c>
-      <c r="F10" s="12" t="n"/>
-      <c r="G10" s="13" t="n"/>
-      <c r="H10" s="15" t="n"/>
-      <c r="I10" s="8" t="n"/>
-      <c r="J10" s="8" t="n"/>
-    </row>
-    <row r="11" ht="34" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>ПТ</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>08:30 - 10:05</t>
         </is>
       </c>
       <c r="D11" s="4" t="n"/>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>Волоконно-оптические системы передачи: ЛБ (общ)</t>
-        </is>
-      </c>
-      <c r="F11" s="21" t="n"/>
-      <c r="G11" s="17" t="n"/>
+          <t>Современные технологии в программировании: ЛБ (общ)</t>
+        </is>
+      </c>
+      <c r="F11" s="16" t="n"/>
+      <c r="G11" s="7" t="n"/>
       <c r="H11" s="4" t="n"/>
       <c r="I11" s="3" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
-          <t>Кусайкин Д.В.</t>
+          <t>Обвинцев О.А.</t>
         </is>
       </c>
     </row>
     <row r="12" ht="34" customHeight="1">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>10:15 - 11:50</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="n"/>
-      <c r="E12" s="18" t="n"/>
-      <c r="F12" s="22" t="n"/>
-      <c r="G12" s="19" t="n"/>
-      <c r="H12" s="4" t="n"/>
-      <c r="I12" s="23" t="n"/>
-      <c r="J12" s="23" t="n"/>
+      <c r="A12" s="8" t="n"/>
+      <c r="B12" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="9" t="inlineStr">
+        <is>
+          <t>14:20 - 15:55</t>
+        </is>
+      </c>
+      <c r="D12" s="13" t="n"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Современные технологии в программировании: ЛБ (общ)</t>
+        </is>
+      </c>
+      <c r="F12" s="12" t="n"/>
+      <c r="G12" s="13" t="n"/>
+      <c r="H12" s="15" t="n"/>
+      <c r="I12" s="8" t="n"/>
+      <c r="J12" s="8" t="n"/>
     </row>
     <row r="13" ht="34" customHeight="1">
-      <c r="A13" s="6" t="n"/>
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>ЧТ</t>
+        </is>
+      </c>
       <c r="B13" s="14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="14" t="inlineStr">
         <is>
-          <t>12:35 - 14:10</t>
+          <t>08:30 - 10:05</t>
         </is>
       </c>
       <c r="D13" s="4" t="n"/>
@@ -2208,79 +2512,179 @@
       <c r="J13" s="14" t="n"/>
     </row>
     <row r="14" ht="34" customHeight="1">
-      <c r="A14" s="6" t="n"/>
-      <c r="B14" s="3" t="n">
+      <c r="A14" s="8" t="n"/>
+      <c r="B14" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
+          <t>Временно день самоподготовки: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E14" s="11" t="n"/>
+      <c r="F14" s="11" t="n"/>
+      <c r="G14" s="11" t="n"/>
+      <c r="H14" s="12" t="n"/>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="J14" s="9" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="34" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>ПТ</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>Волоконно-оптические системы передачи: ЛБ (общ)</t>
+        </is>
+      </c>
+      <c r="F15" s="21" t="n"/>
+      <c r="G15" s="17" t="n"/>
+      <c r="H15" s="4" t="n"/>
+      <c r="I15" s="3" t="n">
+        <v>312</v>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>Кусайкин Д.В.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="34" customHeight="1">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="18" t="n"/>
+      <c r="F16" s="22" t="n"/>
+      <c r="G16" s="19" t="n"/>
+      <c r="H16" s="4" t="n"/>
+      <c r="I16" s="23" t="n"/>
+      <c r="J16" s="23" t="n"/>
+    </row>
+    <row r="17" ht="34" customHeight="1">
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="14" t="inlineStr">
+        <is>
+          <t>12:35 - 14:10</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="n"/>
+      <c r="I17" s="14" t="n"/>
+      <c r="J17" s="14" t="n"/>
+    </row>
+    <row r="18" ht="34" customHeight="1">
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n"/>
-      <c r="G14" s="5" t="inlineStr">
+      <c r="D18" s="4" t="n"/>
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>Современные технологии в программировании: лекция (общ)</t>
         </is>
       </c>
-      <c r="H14" s="4" t="n"/>
-      <c r="I14" s="3" t="n">
+      <c r="H18" s="4" t="n"/>
+      <c r="I18" s="3" t="n">
         <v>310</v>
       </c>
-      <c r="J14" s="3" t="inlineStr">
+      <c r="J18" s="3" t="inlineStr">
         <is>
           <t>Обвинцев О.А.</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="34" customHeight="1">
-      <c r="A15" s="8" t="n"/>
-      <c r="B15" s="9" t="n">
+    <row r="19" ht="34" customHeight="1">
+      <c r="A19" s="8" t="n"/>
+      <c r="B19" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C15" s="9" t="inlineStr">
+      <c r="C19" s="9" t="inlineStr">
         <is>
           <t>16:05 - 17:40</t>
         </is>
       </c>
-      <c r="D15" s="13" t="n"/>
-      <c r="E15" s="15" t="n"/>
-      <c r="F15" s="15" t="n"/>
-      <c r="G15" s="10" t="inlineStr">
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="15" t="n"/>
+      <c r="F19" s="15" t="n"/>
+      <c r="G19" s="10" t="inlineStr">
         <is>
           <t>Иностранный язык: ПР (общ)</t>
         </is>
       </c>
-      <c r="H15" s="13" t="n"/>
-      <c r="I15" s="9" t="n">
+      <c r="H19" s="13" t="n"/>
+      <c r="I19" s="9" t="n">
         <v>205</v>
       </c>
-      <c r="J15" s="9" t="inlineStr">
+      <c r="J19" s="9" t="inlineStr">
         <is>
           <t>Новокшенова Р.Г.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="25">
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="D7:H7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="E11:G12"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="E15:G16"/>
+    <mergeCell ref="I15:I16"/>
     <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A2:A6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
